--- a/Tagging_and_Taxonomy/SHRSS_Content_Tag_Mapping.xlsx
+++ b/Tagging_and_Taxonomy/SHRSS_Content_Tag_Mapping.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lambert/Documents/Projects/SHRSS/SHRSS_Knowledge_Transfer/Tagging_and_Taxonomy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B68FB56-4B51-6243-9D96-4914B3652A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEBF2C3-4C8A-D541-85C1-3CCB25049FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Content-Tag Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Content Fragment" sheetId="4" r:id="rId2"/>
     <sheet name="Experience Fragment" sheetId="3" r:id="rId3"/>
     <sheet name="Page" sheetId="2" r:id="rId4"/>
@@ -7523,7 +7523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -12393,7 +12393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
